--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1EE7452-4473-4652-B10C-68CBB8C14CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3AEF75C-4F7B-4C54-9D55-0012075CFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D9987CA5-C0E6-44A1-AD78-71819428505A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D0EF601-0E5F-40FA-95B0-9A324CBF19DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,64%</t>
+    <t>4,98%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>99,09%</t>
   </si>
   <si>
-    <t>95,36%</t>
+    <t>95,02%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,19 +116,19 @@
     <t>94,33%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1114 +140,1096 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>97,76%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
+    <t>92,91%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>95,16%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>94,88%</t>
+    <t>93,84%</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10318DA5-E5F0-491E-BC59-D7AE2E6EDF19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DCFA09-A0C9-4E6D-B6B4-DBA0948E921D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1953,13 +1935,13 @@
         <v>35551</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -1968,13 +1950,13 @@
         <v>55743</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1971,13 @@
         <v>557444</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>532</v>
@@ -2004,13 +1986,13 @@
         <v>540045</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1088</v>
@@ -2019,13 +2001,13 @@
         <v>1097489</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2063,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2093,13 +2075,13 @@
         <v>22334</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -2108,13 +2090,13 @@
         <v>62942</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -2123,13 +2105,13 @@
         <v>85276</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2126,13 @@
         <v>939466</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -2159,13 +2141,13 @@
         <v>905451</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1726</v>
@@ -2174,13 +2156,13 @@
         <v>1844917</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,7 +2218,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2248,13 +2230,13 @@
         <v>9685</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2263,13 +2245,13 @@
         <v>39298</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2278,13 +2260,13 @@
         <v>48983</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2281,13 @@
         <v>668824</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>656</v>
@@ -2314,13 +2296,13 @@
         <v>644543</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -2329,13 +2311,13 @@
         <v>1313367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,7 +2373,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2403,13 +2385,13 @@
         <v>16835</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2418,13 +2400,13 @@
         <v>73993</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2433,13 +2415,13 @@
         <v>90829</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2436,13 @@
         <v>925387</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -2469,13 +2451,13 @@
         <v>964619</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1902</v>
@@ -2484,13 +2466,13 @@
         <v>1890005</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2540,13 @@
         <v>70100</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -2573,13 +2555,13 @@
         <v>218181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -2588,13 +2570,13 @@
         <v>288281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,16 +2588,16 @@
         <v>3142</v>
       </c>
       <c r="D20" s="7">
-        <v>3205425</v>
+        <v>3205426</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3086</v>
@@ -2624,28 +2606,28 @@
         <v>3161017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="M20" s="7">
         <v>6228</v>
       </c>
       <c r="N20" s="7">
-        <v>6366441</v>
+        <v>6366442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,7 +2639,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2687,7 +2669,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2701,7 +2683,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B909B9-A359-463A-9941-636503547B66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB057C57-04B3-4607-BAC7-78F1EC32038A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,13 +2828,13 @@
         <v>2567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2861,13 +2843,13 @@
         <v>7494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2876,13 +2858,13 @@
         <v>10061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2879,13 @@
         <v>112383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -2912,13 +2894,13 @@
         <v>104411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2927,13 +2909,13 @@
         <v>216794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2983,13 @@
         <v>15354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3016,13 +2998,13 @@
         <v>60538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -3031,13 +3013,13 @@
         <v>75892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3034,13 @@
         <v>570460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3067,13 +3049,13 @@
         <v>522630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1025</v>
@@ -3082,13 +3064,13 @@
         <v>1093090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3126,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3156,13 +3138,13 @@
         <v>36229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3171,13 +3153,13 @@
         <v>83336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -3186,13 +3168,13 @@
         <v>119565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3189,13 @@
         <v>981718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>858</v>
@@ -3222,13 +3204,13 @@
         <v>943359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>1761</v>
@@ -3237,13 +3219,13 @@
         <v>1925077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3299,7 +3281,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3311,13 +3293,13 @@
         <v>16217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3326,13 +3308,13 @@
         <v>55661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3341,13 +3323,13 @@
         <v>71879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3344,13 @@
         <v>739279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>651</v>
@@ -3377,13 +3359,13 @@
         <v>720622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>1326</v>
@@ -3392,13 +3374,13 @@
         <v>1459901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,7 +3436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3466,13 +3448,13 @@
         <v>37464</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -3481,13 +3463,13 @@
         <v>89575</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3496,13 +3478,13 @@
         <v>127040</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3499,13 @@
         <v>906475</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>915</v>
@@ -3532,13 +3514,13 @@
         <v>959188</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1790</v>
@@ -3547,13 +3529,13 @@
         <v>1865662</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,13 +3603,13 @@
         <v>107832</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>281</v>
@@ -3636,13 +3618,13 @@
         <v>296605</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -3651,13 +3633,13 @@
         <v>404438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3654,13 @@
         <v>3310314</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>3006</v>
@@ -3687,13 +3669,13 @@
         <v>3250210</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>6112</v>
@@ -3702,13 +3684,13 @@
         <v>6560524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3746,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C686CC28-1C28-4860-AAC1-71FB844BE0BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D59574-C1FB-4CCA-8EC1-CB3910A8AD93}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3802,7 +3784,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3909,13 +3891,13 @@
         <v>2736</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3924,13 +3906,13 @@
         <v>13340</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3939,13 +3921,13 @@
         <v>16076</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3942,10 @@
         <v>113810</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3975,13 +3957,13 @@
         <v>100020</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -3990,13 +3972,13 @@
         <v>213830</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4046,13 @@
         <v>9802</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4079,13 +4061,13 @@
         <v>43481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4094,13 +4076,13 @@
         <v>53283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4097,13 @@
         <v>548452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4130,13 +4112,13 @@
         <v>515998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -4145,13 +4127,13 @@
         <v>1064450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4189,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4219,13 +4201,13 @@
         <v>17593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4234,13 +4216,13 @@
         <v>75956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4249,13 +4231,13 @@
         <v>93549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4252,13 @@
         <v>1004838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>909</v>
@@ -4285,13 +4267,13 @@
         <v>966957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1843</v>
@@ -4300,13 +4282,13 @@
         <v>1971795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,7 +4344,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4374,13 +4356,13 @@
         <v>15601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4389,13 +4371,13 @@
         <v>42692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4404,13 +4386,13 @@
         <v>58293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4407,13 @@
         <v>743951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>698</v>
@@ -4440,13 +4422,13 @@
         <v>742319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -4455,13 +4437,13 @@
         <v>1486270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4529,13 +4511,13 @@
         <v>28475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4544,13 +4526,13 @@
         <v>76223</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4559,13 +4541,13 @@
         <v>104698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4562,13 @@
         <v>909092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>892</v>
@@ -4595,13 +4577,13 @@
         <v>967556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>1795</v>
@@ -4610,13 +4592,13 @@
         <v>1876648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4666,13 @@
         <v>74207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4699,13 +4681,13 @@
         <v>251691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4714,13 +4696,13 @@
         <v>325898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4717,13 @@
         <v>3320143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>3111</v>
@@ -4750,13 +4732,13 @@
         <v>3292851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M20" s="7">
         <v>6269</v>
@@ -4765,13 +4747,13 @@
         <v>6612994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,7 +4809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B84709B-EE6A-48F8-91D9-DB291A52782D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22563CF0-45CB-4DED-9CC6-025F3E382F1E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4865,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4972,13 +4954,13 @@
         <v>3481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4987,13 +4969,13 @@
         <v>5789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5002,13 +4984,13 @@
         <v>9269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5005,13 @@
         <v>98501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -5038,13 +5020,13 @@
         <v>124587</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>58</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5053,13 +5035,13 @@
         <v>223089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5109,13 @@
         <v>28924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -5142,13 +5124,13 @@
         <v>43146</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -5157,13 +5139,13 @@
         <v>72070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5160,13 @@
         <v>520378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>917</v>
@@ -5193,13 +5175,13 @@
         <v>549816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5208,13 +5190,13 @@
         <v>1070194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,7 +5252,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5282,13 +5264,13 @@
         <v>25598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>344</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5297,13 +5279,13 @@
         <v>69114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5312,13 +5294,13 @@
         <v>94712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5315,13 @@
         <v>1013650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>1411</v>
@@ -5348,13 +5330,13 @@
         <v>990360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>2347</v>
@@ -5363,13 +5345,13 @@
         <v>2004010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,7 +5407,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5437,13 +5419,13 @@
         <v>24591</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5452,13 +5434,13 @@
         <v>67210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5467,13 +5449,13 @@
         <v>91801</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5470,13 @@
         <v>703110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>949</v>
@@ -5503,13 +5485,13 @@
         <v>806536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -5518,13 +5500,13 @@
         <v>1509646</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>373</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5592,13 +5574,13 @@
         <v>35076</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5607,13 +5589,13 @@
         <v>103204</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -5622,13 +5604,13 @@
         <v>138280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5625,13 @@
         <v>930327</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>1401</v>
@@ -5658,13 +5640,13 @@
         <v>1043099</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M17" s="7">
         <v>2366</v>
@@ -5673,13 +5655,13 @@
         <v>1973426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5729,13 @@
         <v>117669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -5762,13 +5744,13 @@
         <v>288464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="M19" s="7">
         <v>580</v>
@@ -5777,13 +5759,13 @@
         <v>406133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,16 +5777,16 @@
         <v>3245</v>
       </c>
       <c r="D20" s="7">
-        <v>3265967</v>
+        <v>3265968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>4908</v>
@@ -5813,13 +5795,13 @@
         <v>3514398</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>8153</v>
@@ -5828,13 +5810,13 @@
         <v>6780365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,7 +5828,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383636</v>
+        <v>3383637</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5890,7 +5872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3AEF75C-4F7B-4C54-9D55-0012075CFC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEE9770-0B13-4616-A4F9-E7687E2771C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D0EF601-0E5F-40FA-95B0-9A324CBF19DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC84F6D-DF47-4EFC-A73E-45692C1CB316}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="403">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,1156 +80,1174 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,98%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,3%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DCFA09-A0C9-4E6D-B6B4-DBA0948E921D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E68D69-7B51-4C42-B8BB-A43873C819CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,13 +1953,13 @@
         <v>35551</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -1950,13 +1968,13 @@
         <v>55743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,13 +1989,13 @@
         <v>557444</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>532</v>
@@ -1986,13 +2004,13 @@
         <v>540045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1088</v>
@@ -2001,13 +2019,13 @@
         <v>1097489</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2081,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2075,13 +2093,13 @@
         <v>22334</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -2090,13 +2108,13 @@
         <v>62942</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>78</v>
@@ -2105,13 +2123,13 @@
         <v>85276</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2144,13 @@
         <v>939466</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>851</v>
@@ -2141,13 +2159,13 @@
         <v>905451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1726</v>
@@ -2156,13 +2174,13 @@
         <v>1844917</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,7 +2236,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2230,13 +2248,13 @@
         <v>9685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -2245,13 +2263,13 @@
         <v>39298</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -2260,13 +2278,13 @@
         <v>48983</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2299,13 @@
         <v>668824</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>656</v>
@@ -2296,13 +2314,13 @@
         <v>644543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -2311,13 +2329,13 @@
         <v>1313367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,7 +2391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2385,13 +2403,13 @@
         <v>16835</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2400,13 +2418,13 @@
         <v>73993</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2415,13 +2433,13 @@
         <v>90829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2454,13 @@
         <v>925387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>926</v>
@@ -2451,13 +2469,13 @@
         <v>964619</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1902</v>
@@ -2466,13 +2484,13 @@
         <v>1890005</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2558,13 @@
         <v>70100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -2555,13 +2573,13 @@
         <v>218181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -2570,13 +2588,13 @@
         <v>288281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,16 +2606,16 @@
         <v>3142</v>
       </c>
       <c r="D20" s="7">
-        <v>3205426</v>
+        <v>3205425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3086</v>
@@ -2606,13 +2624,13 @@
         <v>3161017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6228</v>
@@ -2621,13 +2639,13 @@
         <v>6366442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2657,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2683,7 +2701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB057C57-04B3-4607-BAC7-78F1EC32038A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51450460-378F-426B-B177-E4A3E0BCB29F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2721,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,13 +2846,13 @@
         <v>2567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2843,13 +2861,13 @@
         <v>7494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2858,13 +2876,13 @@
         <v>10061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2897,13 @@
         <v>112383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -2894,13 +2912,13 @@
         <v>104411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2909,13 +2927,13 @@
         <v>216794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +3001,13 @@
         <v>15354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -2998,13 +3016,13 @@
         <v>60538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -3013,13 +3031,13 @@
         <v>75892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3052,13 @@
         <v>570460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3049,13 +3067,13 @@
         <v>522630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>1025</v>
@@ -3064,13 +3082,13 @@
         <v>1093090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3144,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3138,13 +3156,13 @@
         <v>36229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3153,13 +3171,13 @@
         <v>83336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -3168,13 +3186,13 @@
         <v>119565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3207,13 @@
         <v>981718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>858</v>
@@ -3204,13 +3222,13 @@
         <v>943359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1761</v>
@@ -3219,13 +3237,13 @@
         <v>1925077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,7 +3299,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3293,13 +3311,13 @@
         <v>16217</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3308,13 +3326,13 @@
         <v>55661</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3323,13 +3341,13 @@
         <v>71879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3362,13 @@
         <v>739279</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>651</v>
@@ -3359,13 +3377,13 @@
         <v>720622</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1326</v>
@@ -3374,13 +3392,13 @@
         <v>1459901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,7 +3454,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3448,13 +3466,13 @@
         <v>37464</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -3463,13 +3481,13 @@
         <v>89575</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3478,13 +3496,13 @@
         <v>127040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3517,13 @@
         <v>906475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>915</v>
@@ -3514,13 +3532,13 @@
         <v>959188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1790</v>
@@ -3529,13 +3547,13 @@
         <v>1865662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3621,13 @@
         <v>107832</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>281</v>
@@ -3618,13 +3636,13 @@
         <v>296605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -3633,13 +3651,13 @@
         <v>404438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3672,13 @@
         <v>3310314</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>3006</v>
@@ -3669,13 +3687,13 @@
         <v>3250210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>6112</v>
@@ -3684,13 +3702,13 @@
         <v>6560524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3764,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D59574-C1FB-4CCA-8EC1-CB3910A8AD93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AE2253-CEB3-4417-8A5D-359516B77E42}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3784,7 +3802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,13 +3909,13 @@
         <v>2736</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3906,13 +3924,13 @@
         <v>13340</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3921,13 +3939,13 @@
         <v>16076</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,10 +3960,10 @@
         <v>113810</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -3957,13 +3975,13 @@
         <v>100020</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -3972,13 +3990,13 @@
         <v>213830</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4064,13 @@
         <v>9802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -4061,13 +4079,13 @@
         <v>43481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4076,13 +4094,13 @@
         <v>53283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4115,13 @@
         <v>548452</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4112,13 +4130,13 @@
         <v>515998</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -4127,13 +4145,13 @@
         <v>1064450</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4207,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4201,13 +4219,13 @@
         <v>17593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4216,13 +4234,13 @@
         <v>75956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4231,13 +4249,13 @@
         <v>93549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4270,13 @@
         <v>1004838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>909</v>
@@ -4267,13 +4285,13 @@
         <v>966957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1843</v>
@@ -4282,13 +4300,13 @@
         <v>1971795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4362,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4356,13 +4374,13 @@
         <v>15601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -4371,13 +4389,13 @@
         <v>42692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4386,13 +4404,13 @@
         <v>58293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4425,13 @@
         <v>743951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>698</v>
@@ -4422,13 +4440,13 @@
         <v>742319</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -4437,13 +4455,13 @@
         <v>1486270</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,7 +4517,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4511,13 +4529,13 @@
         <v>28475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4526,13 +4544,13 @@
         <v>76223</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>96</v>
@@ -4541,13 +4559,13 @@
         <v>104698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4580,13 @@
         <v>909092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>892</v>
@@ -4577,13 +4595,13 @@
         <v>967556</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1795</v>
@@ -4592,13 +4610,13 @@
         <v>1876648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4684,13 @@
         <v>74207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4681,13 +4699,13 @@
         <v>251691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4696,13 +4714,13 @@
         <v>325898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4735,13 @@
         <v>3320143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3111</v>
@@ -4732,13 +4750,13 @@
         <v>3292851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>6269</v>
@@ -4747,13 +4765,13 @@
         <v>6612994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,7 +4827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22563CF0-45CB-4DED-9CC6-025F3E382F1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4239F5D-3E47-474A-8679-1111301DFA9F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,7 +4865,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4954,13 +4972,13 @@
         <v>3481</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4969,13 +4987,13 @@
         <v>5789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4984,13 +5002,13 @@
         <v>9269</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5023,13 @@
         <v>98501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -5020,13 +5038,13 @@
         <v>124587</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5035,13 +5053,13 @@
         <v>223089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,13 +5127,13 @@
         <v>28924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -5124,13 +5142,13 @@
         <v>43146</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -5139,13 +5157,13 @@
         <v>72070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5178,13 @@
         <v>520378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>917</v>
@@ -5175,13 +5193,13 @@
         <v>549816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5190,13 +5208,13 @@
         <v>1070194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,7 +5270,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5264,13 +5282,13 @@
         <v>25598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5279,13 +5297,13 @@
         <v>69114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5294,13 +5312,13 @@
         <v>94712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5333,13 @@
         <v>1013650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H11" s="7">
         <v>1411</v>
@@ -5330,13 +5348,13 @@
         <v>990360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>358</v>
       </c>
       <c r="M11" s="7">
         <v>2347</v>
@@ -5345,13 +5363,13 @@
         <v>2004010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>358</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,7 +5425,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5419,13 +5437,13 @@
         <v>24591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5434,13 +5452,13 @@
         <v>67210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5449,13 +5467,13 @@
         <v>91801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5488,13 @@
         <v>703110</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>949</v>
@@ -5485,13 +5503,13 @@
         <v>806536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -5500,13 +5518,13 @@
         <v>1509646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,7 +5580,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5574,13 +5592,13 @@
         <v>35076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5589,13 +5607,13 @@
         <v>103204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -5604,13 +5622,13 @@
         <v>138280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>381</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5643,13 @@
         <v>930327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>1401</v>
@@ -5640,13 +5658,13 @@
         <v>1043099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>2366</v>
@@ -5655,13 +5673,13 @@
         <v>1973426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5747,13 @@
         <v>117669</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -5744,13 +5762,13 @@
         <v>288464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M19" s="7">
         <v>580</v>
@@ -5759,13 +5777,13 @@
         <v>406133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>244</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5798,13 @@
         <v>3265968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>4908</v>
@@ -5795,13 +5813,13 @@
         <v>3514398</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>8153</v>
@@ -5810,13 +5828,13 @@
         <v>6780365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +5890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CEE9770-0B13-4616-A4F9-E7687E2771C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29412C66-D86F-4CA1-B2E1-FE9A1D030F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4AC84F6D-DF47-4EFC-A73E-45692C1CB316}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AD05B8D-0275-421F-9AE7-E79BB72D06CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -80,1174 +80,1174 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>4,64%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>6,29%</t>
   </si>
   <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>94,35%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>94,88%</t>
   </si>
 </sst>
 </file>
@@ -1659,7 +1659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E68D69-7B51-4C42-B8BB-A43873C819CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86B4C2-EE80-4327-9417-F6D1D0266BD9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2558,13 +2558,13 @@
         <v>70100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -2573,13 +2573,13 @@
         <v>218181</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>282</v>
@@ -2588,13 +2588,13 @@
         <v>288281</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,13 +2609,13 @@
         <v>3205425</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>3086</v>
@@ -2624,28 +2624,28 @@
         <v>3161017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>6228</v>
       </c>
       <c r="N20" s="7">
-        <v>6366442</v>
+        <v>6366441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2722,7 +2722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51450460-378F-426B-B177-E4A3E0BCB29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9AEA6E-20D6-4B93-B88A-607A355EE5B4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2739,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2846,13 +2846,13 @@
         <v>2567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2861,13 +2861,13 @@
         <v>7494</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2876,13 +2876,13 @@
         <v>10061</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2897,13 @@
         <v>112383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -2912,13 +2912,13 @@
         <v>104411</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2927,13 +2927,13 @@
         <v>216794</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +3001,13 @@
         <v>15354</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -3016,13 +3016,13 @@
         <v>60538</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -3031,13 +3031,13 @@
         <v>75892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3052,13 @@
         <v>570460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>490</v>
@@ -3067,13 +3067,13 @@
         <v>522630</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1025</v>
@@ -3082,13 +3082,13 @@
         <v>1093090</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,13 +3156,13 @@
         <v>36229</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3171,13 +3171,13 @@
         <v>83336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -3186,13 +3186,13 @@
         <v>119565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,10 +3207,10 @@
         <v>981718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>169</v>
@@ -3237,13 +3237,13 @@
         <v>1925077</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,10 +3314,10 @@
         <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3326,13 +3326,13 @@
         <v>55661</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3341,13 +3341,13 @@
         <v>71879</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3362,13 @@
         <v>739279</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>651</v>
@@ -3377,13 +3377,13 @@
         <v>720622</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>1326</v>
@@ -3392,13 +3392,13 @@
         <v>1459901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3466,13 @@
         <v>37464</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -3481,13 +3481,13 @@
         <v>89575</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3496,13 +3496,13 @@
         <v>127040</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3517,13 @@
         <v>906475</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>915</v>
@@ -3532,13 +3532,13 @@
         <v>959188</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1790</v>
@@ -3547,10 +3547,10 @@
         <v>1865662</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>206</v>
@@ -3627,7 +3627,7 @@
         <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>281</v>
@@ -3636,13 +3636,13 @@
         <v>296605</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>376</v>
@@ -3651,13 +3651,13 @@
         <v>404438</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,10 +3675,10 @@
         <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>3006</v>
@@ -3687,13 +3687,13 @@
         <v>3250210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>6112</v>
@@ -3702,10 +3702,10 @@
         <v>6560524</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>222</v>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3785,7 +3785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AE2253-CEB3-4417-8A5D-359516B77E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A48869-903D-4DAB-B430-C31222464159}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4079,13 +4079,13 @@
         <v>43481</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4094,13 +4094,13 @@
         <v>53283</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4115,13 @@
         <v>548452</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4130,13 +4130,13 @@
         <v>515998</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -4145,13 +4145,13 @@
         <v>1064450</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4219,13 @@
         <v>17593</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -4234,13 +4234,13 @@
         <v>75956</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4249,13 +4249,13 @@
         <v>93549</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4270,13 @@
         <v>1004838</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>909</v>
@@ -4285,13 +4285,13 @@
         <v>966957</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>1843</v>
@@ -4389,13 +4389,13 @@
         <v>42692</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -4404,10 +4404,10 @@
         <v>58293</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>281</v>
@@ -4440,13 +4440,13 @@
         <v>742319</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -4455,13 +4455,13 @@
         <v>1486270</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4529,13 @@
         <v>28475</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4544,10 +4544,10 @@
         <v>76223</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>294</v>
@@ -4565,7 +4565,7 @@
         <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,7 +4580,7 @@
         <v>909092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>298</v>
@@ -4601,7 +4601,7 @@
         <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1795</v>
@@ -4610,13 +4610,13 @@
         <v>1876648</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4684,13 @@
         <v>74207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4699,13 +4699,13 @@
         <v>251691</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>300</v>
@@ -4714,13 +4714,13 @@
         <v>325898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,13 +4735,13 @@
         <v>3320143</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>3111</v>
@@ -4750,13 +4750,13 @@
         <v>3292851</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>6269</v>
@@ -4765,10 +4765,10 @@
         <v>6612994</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>319</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +4848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4239F5D-3E47-474A-8679-1111301DFA9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C4F4A-E567-4F9B-BE3A-6E7E22925CD7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4972,13 +4972,13 @@
         <v>3481</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4987,10 +4987,10 @@
         <v>5789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>324</v>
@@ -5005,10 +5005,10 @@
         <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5023,7 @@
         <v>98501</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>61</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>328</v>
@@ -5038,13 +5038,13 @@
         <v>124587</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>344</v>
@@ -5053,13 +5053,13 @@
         <v>223089</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5127,13 @@
         <v>28924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -5142,13 +5142,13 @@
         <v>43146</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>110</v>
@@ -5157,13 +5157,13 @@
         <v>72070</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>210</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5178,13 @@
         <v>520378</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>917</v>
@@ -5193,13 +5193,13 @@
         <v>549816</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M8" s="7">
         <v>1497</v>
@@ -5208,13 +5208,13 @@
         <v>1070194</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5282,13 @@
         <v>25598</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>105</v>
@@ -5297,13 +5297,13 @@
         <v>69114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>133</v>
@@ -5312,13 +5312,13 @@
         <v>94712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5333,13 @@
         <v>1013650</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>1411</v>
@@ -5348,13 +5348,13 @@
         <v>990360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="M11" s="7">
         <v>2347</v>
@@ -5440,10 +5440,10 @@
         <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -5452,13 +5452,13 @@
         <v>67210</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -5467,13 +5467,13 @@
         <v>91801</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5488,13 @@
         <v>703110</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>949</v>
@@ -5503,13 +5503,13 @@
         <v>806536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -5518,13 +5518,13 @@
         <v>1509646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5592,13 @@
         <v>35076</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>158</v>
@@ -5607,13 +5607,13 @@
         <v>103204</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -5622,13 +5622,13 @@
         <v>138280</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5643,13 @@
         <v>930327</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
         <v>1401</v>
@@ -5658,13 +5658,13 @@
         <v>1043099</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M17" s="7">
         <v>2366</v>
@@ -5673,13 +5673,13 @@
         <v>1973426</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5747,13 @@
         <v>117669</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H19" s="7">
         <v>451</v>
@@ -5762,13 +5762,13 @@
         <v>288464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>580</v>
@@ -5777,13 +5777,13 @@
         <v>406133</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,16 +5795,16 @@
         <v>3245</v>
       </c>
       <c r="D20" s="7">
-        <v>3265968</v>
+        <v>3265967</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>4908</v>
@@ -5813,13 +5813,13 @@
         <v>3514398</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>8153</v>
@@ -5828,10 +5828,10 @@
         <v>6780365</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>402</v>
@@ -5846,7 +5846,7 @@
         <v>3374</v>
       </c>
       <c r="D21" s="7">
-        <v>3383637</v>
+        <v>3383636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29412C66-D86F-4CA1-B2E1-FE9A1D030F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F274BFD-B096-421B-8400-4BD472AB30B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5AD05B8D-0275-421F-9AE7-E79BB72D06CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E991DD92-9826-4048-B006-6AB611D02F93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1186 +68,1027 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
   </si>
   <si>
     <t>94,17%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido antidepresivos en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>95,45%</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A86B4C2-EE80-4327-9417-F6D1D0266BD9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878843AC-1F44-468D-9D95-414BA8112D54}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1777,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>1054</v>
+        <v>21246</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1792,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>6397</v>
+        <v>41948</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1807,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>7450</v>
+        <v>63194</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1828,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>104</v>
+        <v>660</v>
       </c>
       <c r="D5" s="7">
-        <v>114304</v>
+        <v>671748</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1843,10 +1684,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>121</v>
+        <v>653</v>
       </c>
       <c r="I5" s="7">
-        <v>106358</v>
+        <v>646403</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1858,10 +1699,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>225</v>
+        <v>1313</v>
       </c>
       <c r="N5" s="7">
-        <v>220663</v>
+        <v>1318151</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1879,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1894,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1909,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1935,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>20192</v>
+        <v>22334</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1947,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="I7" s="7">
-        <v>35551</v>
+        <v>62942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1962,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>55743</v>
+        <v>85276</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1983,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>556</v>
+        <v>875</v>
       </c>
       <c r="D8" s="7">
-        <v>557444</v>
+        <v>939466</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1998,10 +1839,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>851</v>
       </c>
       <c r="I8" s="7">
-        <v>540045</v>
+        <v>905451</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2013,10 +1854,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1088</v>
+        <v>1726</v>
       </c>
       <c r="N8" s="7">
-        <v>1097489</v>
+        <v>1844917</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2034,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2049,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2064,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2087,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>22334</v>
+        <v>9685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2102,10 +1943,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>62942</v>
+        <v>39298</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2117,10 +1958,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>85276</v>
+        <v>48983</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2138,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>875</v>
+        <v>631</v>
       </c>
       <c r="D11" s="7">
-        <v>939466</v>
+        <v>668824</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2153,10 +1994,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>851</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>905451</v>
+        <v>644543</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2168,10 +2009,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1726</v>
+        <v>1287</v>
       </c>
       <c r="N11" s="7">
-        <v>1844917</v>
+        <v>1313367</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2189,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2204,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2219,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2242,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>9685</v>
+        <v>16835</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2257,10 +2098,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>39298</v>
+        <v>73993</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2272,10 +2113,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>48983</v>
+        <v>90829</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2293,10 +2134,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>631</v>
+        <v>976</v>
       </c>
       <c r="D14" s="7">
-        <v>668824</v>
+        <v>925387</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2308,10 +2149,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>656</v>
+        <v>926</v>
       </c>
       <c r="I14" s="7">
-        <v>644543</v>
+        <v>964619</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2323,10 +2164,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1287</v>
+        <v>1902</v>
       </c>
       <c r="N14" s="7">
-        <v>1313367</v>
+        <v>1890005</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2344,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2359,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2374,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2391,55 +2232,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>16835</v>
+        <v>70100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>211</v>
+      </c>
+      <c r="I16" s="7">
+        <v>218181</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7">
-        <v>73993</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>282</v>
+      </c>
+      <c r="N16" s="7">
+        <v>288281</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>90829</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,49 +2289,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>976</v>
+        <v>3142</v>
       </c>
       <c r="D17" s="7">
-        <v>925387</v>
+        <v>3205425</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3086</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3161016</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>926</v>
-      </c>
-      <c r="I17" s="7">
-        <v>964619</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6228</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6366441</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1902</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1890005</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2514,10 +2355,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2529,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2545,171 +2386,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>71</v>
-      </c>
-      <c r="D19" s="7">
-        <v>70100</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>211</v>
-      </c>
-      <c r="I19" s="7">
-        <v>218181</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>282</v>
-      </c>
-      <c r="N19" s="7">
-        <v>288281</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3142</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3205425</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3086</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3161017</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6228</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6366441</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2722,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9AEA6E-20D6-4B93-B88A-607A355EE5B4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA8586B-1AE4-45A9-B8BC-45471B5270C9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2739,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2840,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>2567</v>
+        <v>17921</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I4" s="7">
-        <v>7494</v>
+        <v>68032</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="N4" s="7">
-        <v>10061</v>
+        <v>85954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,49 +2576,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>653</v>
+      </c>
+      <c r="D5" s="7">
+        <v>682843</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
-        <v>112383</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>582</v>
       </c>
       <c r="I5" s="7">
-        <v>104411</v>
+        <v>627041</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1235</v>
       </c>
       <c r="N5" s="7">
-        <v>216794</v>
+        <v>1309883</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2957,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>695073</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2972,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1319</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1395837</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2995,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>15354</v>
+        <v>36229</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>60538</v>
+        <v>83336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="M7" s="7">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>75892</v>
+        <v>119565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,49 +2731,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>535</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>570460</v>
+        <v>981718</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
-        <v>490</v>
+        <v>858</v>
       </c>
       <c r="I8" s="7">
-        <v>522630</v>
+        <v>943359</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
-        <v>1025</v>
+        <v>1761</v>
       </c>
       <c r="N8" s="7">
-        <v>1093090</v>
+        <v>1925077</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3112,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>935</v>
       </c>
       <c r="I9" s="7">
-        <v>583168</v>
+        <v>1026695</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3127,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1168982</v>
+        <v>2044642</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3150,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>36229</v>
+        <v>16217</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="H10" s="7">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>83336</v>
+        <v>55661</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>119565</v>
+        <v>71879</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,49 +2886,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>675</v>
       </c>
       <c r="D11" s="7">
-        <v>981718</v>
+        <v>739280</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="H11" s="7">
-        <v>858</v>
+        <v>651</v>
       </c>
       <c r="I11" s="7">
-        <v>943359</v>
+        <v>720622</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>1761</v>
+        <v>1326</v>
       </c>
       <c r="N11" s="7">
-        <v>1925077</v>
+        <v>1459901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>687</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>755497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3267,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>935</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1026695</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3282,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2044642</v>
+        <v>1531780</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3305,49 +2990,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>16217</v>
+        <v>37464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="I13" s="7">
-        <v>55661</v>
+        <v>89575</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
-        <v>71879</v>
+        <v>127040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3041,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>675</v>
+        <v>875</v>
       </c>
       <c r="D14" s="7">
-        <v>739279</v>
+        <v>906475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>651</v>
+        <v>915</v>
       </c>
       <c r="I14" s="7">
-        <v>720622</v>
+        <v>959188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>1326</v>
+        <v>1790</v>
       </c>
       <c r="N14" s="7">
-        <v>1459901</v>
+        <v>1865663</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>687</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>755496</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3422,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3437,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1531780</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3454,55 +3139,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>37464</v>
+        <v>107832</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="I16" s="7">
-        <v>89575</v>
+        <v>296605</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>117</v>
+        <v>376</v>
       </c>
       <c r="N16" s="7">
-        <v>127040</v>
+        <v>404437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>875</v>
+        <v>3106</v>
       </c>
       <c r="D17" s="7">
-        <v>906475</v>
+        <v>3310315</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>915</v>
+        <v>3006</v>
       </c>
       <c r="I17" s="7">
-        <v>959188</v>
+        <v>3250210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>1790</v>
+        <v>6112</v>
       </c>
       <c r="N17" s="7">
-        <v>1865662</v>
+        <v>6560524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3201</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3418147</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3577,10 +3262,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3287</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3546815</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3592,10 +3277,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6488</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6964961</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3608,171 +3293,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>95</v>
-      </c>
-      <c r="D19" s="7">
-        <v>107832</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>281</v>
-      </c>
-      <c r="I19" s="7">
-        <v>296605</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M19" s="7">
-        <v>376</v>
-      </c>
-      <c r="N19" s="7">
-        <v>404438</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3106</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3310314</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3006</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3250210</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6112</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6560524</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3418146</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3287</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3546815</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6964962</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3785,8 +3314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A48869-903D-4DAB-B430-C31222464159}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A12460-1BDC-49DC-8F46-91F706240D7D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3802,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3903,49 +3432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>2736</v>
+        <v>12538</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>13340</v>
+        <v>56821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>16076</v>
+        <v>69359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,49 +3483,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>111</v>
+        <v>640</v>
       </c>
       <c r="D5" s="7">
-        <v>113810</v>
+        <v>662262</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>102</v>
+        <v>612</v>
       </c>
       <c r="I5" s="7">
-        <v>100020</v>
+        <v>616018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>213</v>
+        <v>1252</v>
       </c>
       <c r="N5" s="7">
-        <v>213830</v>
+        <v>1278280</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4020,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4035,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4058,49 +3587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>9802</v>
+        <v>17593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>43481</v>
+        <v>75956</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N7" s="7">
-        <v>53283</v>
+        <v>93549</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,49 +3638,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>529</v>
+        <v>934</v>
       </c>
       <c r="D8" s="7">
-        <v>548452</v>
+        <v>1004838</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>510</v>
+        <v>909</v>
       </c>
       <c r="I8" s="7">
-        <v>515998</v>
+        <v>966957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>1039</v>
+        <v>1843</v>
       </c>
       <c r="N8" s="7">
-        <v>1064450</v>
+        <v>1971795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4175,10 +3704,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4190,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4213,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>17593</v>
+        <v>15601</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I10" s="7">
-        <v>75956</v>
+        <v>42692</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7">
-        <v>93549</v>
+        <v>58293</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>934</v>
+        <v>681</v>
       </c>
       <c r="D11" s="7">
-        <v>1004838</v>
+        <v>743951</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>909</v>
+        <v>698</v>
       </c>
       <c r="I11" s="7">
-        <v>966957</v>
+        <v>742319</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>1843</v>
+        <v>1379</v>
       </c>
       <c r="N11" s="7">
-        <v>1971795</v>
+        <v>1486270</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4330,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4345,10 +3874,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4368,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>15601</v>
+        <v>28475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>42692</v>
+        <v>76223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>58293</v>
+        <v>104698</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>681</v>
+        <v>903</v>
       </c>
       <c r="D14" s="7">
-        <v>743951</v>
+        <v>909092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>698</v>
+        <v>892</v>
       </c>
       <c r="I14" s="7">
-        <v>742319</v>
+        <v>967556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>1379</v>
+        <v>1795</v>
       </c>
       <c r="N14" s="7">
-        <v>1486270</v>
+        <v>1876648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4485,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4500,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4517,55 +4046,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>28475</v>
+        <v>74207</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>227</v>
       </c>
       <c r="I16" s="7">
-        <v>76223</v>
+        <v>251691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="M16" s="7">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="N16" s="7">
-        <v>104698</v>
+        <v>325898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,49 +4103,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>903</v>
+        <v>3158</v>
       </c>
       <c r="D17" s="7">
-        <v>909092</v>
+        <v>3320143</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
-        <v>892</v>
+        <v>3111</v>
       </c>
       <c r="I17" s="7">
-        <v>967556</v>
+        <v>3292851</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>1795</v>
+        <v>6269</v>
       </c>
       <c r="N17" s="7">
-        <v>1876648</v>
+        <v>6612994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4640,10 +4169,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4655,10 +4184,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4671,171 +4200,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>73</v>
-      </c>
-      <c r="D19" s="7">
-        <v>74207</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19" s="7">
-        <v>227</v>
-      </c>
-      <c r="I19" s="7">
-        <v>251691</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M19" s="7">
-        <v>300</v>
-      </c>
-      <c r="N19" s="7">
-        <v>325898</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3158</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3320143</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3111</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3292851</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6269</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6612994</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4848,8 +4221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95C4F4A-E567-4F9B-BE3A-6E7E22925CD7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B1CACB-48D5-4214-A2A4-3482BAD42613}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4865,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4966,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>3481</v>
+        <v>30619</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I4" s="7">
-        <v>5789</v>
+        <v>45355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="N4" s="7">
-        <v>9269</v>
+        <v>75974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>114</v>
+        <v>694</v>
       </c>
       <c r="D5" s="7">
-        <v>98501</v>
+        <v>604332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>230</v>
+        <v>1147</v>
       </c>
       <c r="I5" s="7">
-        <v>124587</v>
+        <v>630067</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
-        <v>344</v>
+        <v>1841</v>
       </c>
       <c r="N5" s="7">
-        <v>223089</v>
+        <v>1234399</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5083,10 +4456,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5098,10 +4471,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5121,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>28924</v>
+        <v>24622</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="I7" s="7">
-        <v>43146</v>
+        <v>62666</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="N7" s="7">
-        <v>72070</v>
+        <v>87287</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>580</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>520378</v>
+        <v>1168242</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>917</v>
+        <v>1411</v>
       </c>
       <c r="I8" s="7">
-        <v>549816</v>
+        <v>895440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
-        <v>1497</v>
+        <v>2347</v>
       </c>
       <c r="N8" s="7">
-        <v>1070194</v>
+        <v>2063684</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5238,10 +4611,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5253,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5276,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>25598</v>
+        <v>23382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I10" s="7">
-        <v>69114</v>
+        <v>61237</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="N10" s="7">
-        <v>94712</v>
+        <v>84619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>1013650</v>
+        <v>680302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>1411</v>
+        <v>949</v>
       </c>
       <c r="I11" s="7">
-        <v>990360</v>
+        <v>871563</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>2347</v>
+        <v>1599</v>
       </c>
       <c r="N11" s="7">
-        <v>2004010</v>
+        <v>1551865</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5393,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5408,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5431,49 +4804,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>24591</v>
+        <v>33134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="I13" s="7">
-        <v>67210</v>
+        <v>92939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="N13" s="7">
-        <v>91801</v>
+        <v>126073</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>650</v>
+        <v>965</v>
       </c>
       <c r="D14" s="7">
-        <v>703110</v>
+        <v>893697</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>949</v>
+        <v>1401</v>
       </c>
       <c r="I14" s="7">
-        <v>806536</v>
+        <v>998435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>1599</v>
+        <v>2366</v>
       </c>
       <c r="N14" s="7">
-        <v>1509646</v>
+        <v>1892132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5548,10 +4921,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5563,10 +4936,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5580,55 +4953,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D16" s="7">
-        <v>35076</v>
+        <v>111757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>158</v>
+        <v>451</v>
       </c>
       <c r="I16" s="7">
-        <v>103204</v>
+        <v>262196</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
-        <v>199</v>
+        <v>580</v>
       </c>
       <c r="N16" s="7">
-        <v>138280</v>
+        <v>373953</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>380</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,49 +5010,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>965</v>
+        <v>3245</v>
       </c>
       <c r="D17" s="7">
-        <v>930327</v>
+        <v>3346573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>382</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>383</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
-        <v>1401</v>
+        <v>4908</v>
       </c>
       <c r="I17" s="7">
-        <v>1043099</v>
+        <v>3395506</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
-        <v>2366</v>
+        <v>8153</v>
       </c>
       <c r="N17" s="7">
-        <v>1973426</v>
+        <v>6742079</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458330</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5703,10 +5076,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5359</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3657702</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5718,10 +5091,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8733</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5734,171 +5107,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>129</v>
-      </c>
-      <c r="D19" s="7">
-        <v>117669</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="H19" s="7">
-        <v>451</v>
-      </c>
-      <c r="I19" s="7">
-        <v>288464</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>580</v>
-      </c>
-      <c r="N19" s="7">
-        <v>406133</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3245</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3265967</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4908</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3514398</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8153</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6780365</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383636</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5359</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3802862</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8733</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186498</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
